--- a/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -252,7 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +260,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +280,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -289,6 +319,38 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -297,14 +359,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,14 +384,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,68 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -417,13 +417,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,37 +525,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,127 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +632,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -647,16 +662,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,39 +708,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -716,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +728,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,12 +1187,15 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="35.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="14.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="18.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1571,7 +1574,9 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>50</v>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -94,7 +94,7 @@
     <t>软泥怪杀手</t>
   </si>
   <si>
-    <t>{"2":10}</t>
+    <t>{"condition":2,"aim":10}</t>
   </si>
   <si>
     <t>击杀软泥怪10个</t>
@@ -106,7 +106,7 @@
     <t>升级大师</t>
   </si>
   <si>
-    <t>{"first":10}</t>
+    <t>{"condition":0,"aim":10}</t>
   </si>
   <si>
     <t>角色达到10级</t>
@@ -118,7 +118,7 @@
     <t>访问村长</t>
   </si>
   <si>
-    <t>{"id":1}</t>
+    <t>{"condition":1,"aim":1}</t>
   </si>
   <si>
     <t>和村长对话</t>
@@ -130,7 +130,7 @@
     <t>全村最好的剑</t>
   </si>
   <si>
-    <t>{"first":100}</t>
+    <t>{"condition":0,"aim":100}</t>
   </si>
   <si>
     <t>第一次获得一件百级装备</t>
@@ -142,7 +142,7 @@
     <t>好友相伴</t>
   </si>
   <si>
-    <t>{"first":1}</t>
+    <t>{"condition":0,"aim":1}</t>
   </si>
   <si>
     <t>第一次添加一个好友</t>
@@ -181,7 +181,7 @@
     <t>百万富翁</t>
   </si>
   <si>
-    <t>{"first":1000000}</t>
+    <t>{"condition":0,"aim":1000000}</t>
   </si>
   <si>
     <t>当前金币达到一百万</t>
@@ -211,9 +211,6 @@
     <t>挑战炎魔</t>
   </si>
   <si>
-    <t>{"id":8}</t>
-  </si>
-  <si>
     <t>通关黑石塔副本</t>
   </si>
   <si>
@@ -223,7 +220,7 @@
     <t>一身神装</t>
   </si>
   <si>
-    <t>{"first":20}</t>
+    <t>{"condition":0,"aim":20}</t>
   </si>
   <si>
     <t>穿戴的装备等级总和达到20级</t>
@@ -237,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -252,7 +249,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +292,86 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,116 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +414,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,37 +474,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,85 +564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,43 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,10 +610,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -625,8 +620,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +656,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -679,32 +689,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +725,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,7 +1184,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1579,16 +1576,16 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="I13" s="1">
         <v>109</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1596,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -1609,16 +1606,16 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I14" s="1">
         <v>100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
@@ -100,7 +100,7 @@
     <t>击杀软泥怪10个</t>
   </si>
   <si>
-    <t>{"1009":1}</t>
+    <t>{"28":1}</t>
   </si>
   <si>
     <t>升级大师</t>
@@ -112,7 +112,7 @@
     <t>角色达到10级</t>
   </si>
   <si>
-    <t>{"1009":2}</t>
+    <t>{"28":2}</t>
   </si>
   <si>
     <t>访问村长</t>
@@ -124,7 +124,7 @@
     <t>和村长对话</t>
   </si>
   <si>
-    <t>{"1009":3}</t>
+    <t>{"28":3}</t>
   </si>
   <si>
     <t>全村最好的剑</t>
@@ -136,7 +136,7 @@
     <t>第一次获得一件百级装备</t>
   </si>
   <si>
-    <t>{"1009":4}</t>
+    <t>{"28":4}</t>
   </si>
   <si>
     <t>好友相伴</t>
@@ -148,7 +148,7 @@
     <t>第一次添加一个好友</t>
   </si>
   <si>
-    <t>{"1009":5}</t>
+    <t>{"28":5}</t>
   </si>
   <si>
     <t>不再孤单</t>
@@ -157,7 +157,7 @@
     <t>第一次组队</t>
   </si>
   <si>
-    <t>{"1009":6}</t>
+    <t>{"28":6}</t>
   </si>
   <si>
     <t>贸易大王</t>
@@ -166,7 +166,7 @@
     <t>第一次与玩家交易</t>
   </si>
   <si>
-    <t>{"1009":7}</t>
+    <t>{"28":7}</t>
   </si>
   <si>
     <t>决斗之王</t>
@@ -175,7 +175,7 @@
     <t>第一次在pk中战胜</t>
   </si>
   <si>
-    <t>{"1009":8}</t>
+    <t>{"28":8}</t>
   </si>
   <si>
     <t>百万富翁</t>
@@ -187,7 +187,7 @@
     <t>当前金币达到一百万</t>
   </si>
   <si>
-    <t>{"1009":9}</t>
+    <t>{"28":9}</t>
   </si>
   <si>
     <t>新手上路</t>
@@ -196,7 +196,7 @@
     <t>完成新手村所有任务</t>
   </si>
   <si>
-    <t>{"1009":10}</t>
+    <t>{"28":10}</t>
   </si>
   <si>
     <t>归属</t>
@@ -205,7 +205,7 @@
     <t>第一次加入公会</t>
   </si>
   <si>
-    <t>{"1009":11}</t>
+    <t>{"28":11}</t>
   </si>
   <si>
     <t>挑战炎魔</t>
@@ -214,7 +214,7 @@
     <t>通关黑石塔副本</t>
   </si>
   <si>
-    <t>{"1009":12}</t>
+    <t>{"28":12}</t>
   </si>
   <si>
     <t>一身神装</t>
@@ -226,7 +226,7 @@
     <t>穿戴的装备等级总和达到20级</t>
   </si>
   <si>
-    <t>{"1009":13}</t>
+    <t>{"28":13}</t>
   </si>
 </sst>
 </file>
@@ -248,8 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,41 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -315,7 +281,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,25 +340,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,32 +378,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,187 +414,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,54 +605,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -671,17 +623,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +666,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -713,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,133 +725,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -94,7 +94,7 @@
     <t>软泥怪杀手</t>
   </si>
   <si>
-    <t>{"condition":2,"aim":10}</t>
+    <t>{"condition":12,"aim":5}</t>
   </si>
   <si>
     <t>击杀软泥怪10个</t>
@@ -106,7 +106,7 @@
     <t>升级大师</t>
   </si>
   <si>
-    <t>{"condition":0,"aim":10}</t>
+    <t>{"condition":0,"aim":6}</t>
   </si>
   <si>
     <t>角色达到10级</t>
@@ -130,10 +130,10 @@
     <t>全村最好的剑</t>
   </si>
   <si>
-    <t>{"condition":0,"aim":100}</t>
-  </si>
-  <si>
-    <t>第一次获得一件百级装备</t>
+    <t>{"condition":0,"aim":3}</t>
+  </si>
+  <si>
+    <t>第一次获得三件顶级装备</t>
   </si>
   <si>
     <t>{"28":4}</t>
@@ -211,6 +211,9 @@
     <t>挑战炎魔</t>
   </si>
   <si>
+    <t>{"condition":6,"aim":1}</t>
+  </si>
+  <si>
     <t>通关黑石塔副本</t>
   </si>
   <si>
@@ -220,10 +223,10 @@
     <t>一身神装</t>
   </si>
   <si>
-    <t>{"condition":0,"aim":20}</t>
-  </si>
-  <si>
-    <t>穿戴的装备等级总和达到20级</t>
+    <t>{"condition":0,"aim":18}</t>
+  </si>
+  <si>
+    <t>穿戴的装备等级达到最高等级18</t>
   </si>
   <si>
     <t>{"28":13}</t>
@@ -234,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -245,6 +248,103 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,33 +357,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,21 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,74 +396,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -414,19 +417,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +555,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,139 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,17 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,19 +653,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,26 +689,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,133 +728,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1187,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1576,16 +1579,16 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1">
         <v>109</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1593,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -1606,16 +1609,16 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I14" s="1">
         <v>100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/task.xlsx
@@ -181,7 +181,7 @@
     <t>百万富翁</t>
   </si>
   <si>
-    <t>{"condition":0,"aim":1000000}</t>
+    <t>{"condition":0,"aim":1000}</t>
   </si>
   <si>
     <t>当前金币达到一百万</t>
@@ -237,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -252,7 +252,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,15 +367,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,108 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,13 +417,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,13 +567,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,108 +591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,42 +598,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,21 +608,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,15 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,6 +646,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,19 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +728,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
